--- a/output/scores/micro_avg_calculator.xlsx
+++ b/output/scores/micro_avg_calculator.xlsx
@@ -69,11 +69,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="15">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,51 +92,85 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -236,22 +271,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -357,21 +424,21 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="17.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
